--- a/daq_system/inputs/CMS_Control_Test_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Control_Test_Dev5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AD1EF8-2F3E-464C-91CE-0B28019310B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB342DD2-9472-47D8-9F10-B048CBD0C693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="12960" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="4180" windowWidth="19200" windowHeight="8073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -35,13 +35,7 @@
     <t>Operation</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Closed</t>
   </si>
   <si>
     <t>Terminal Configuration</t>
@@ -69,84 +63,6 @@
   </si>
   <si>
     <t>Wiring DO</t>
-  </si>
-  <si>
-    <t>dev5/port0/line23</t>
-  </si>
-  <si>
-    <t>SV-N2-02</t>
-  </si>
-  <si>
-    <t>PV-FU-02</t>
-  </si>
-  <si>
-    <t>dev5/port0/line18</t>
-  </si>
-  <si>
-    <t>PV-OX-02</t>
-  </si>
-  <si>
-    <t>dev5/port0/line19</t>
-  </si>
-  <si>
-    <t>PV-FU-03</t>
-  </si>
-  <si>
-    <t>dev5/port0/line20</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Opened</t>
-  </si>
-  <si>
-    <t>PV-OX-03</t>
-  </si>
-  <si>
-    <t>dev5/port0/line21</t>
-  </si>
-  <si>
-    <t>SV-BP-01</t>
-  </si>
-  <si>
-    <t>dev5/port0/line22</t>
-  </si>
-  <si>
-    <t>PV-HE-01</t>
-  </si>
-  <si>
-    <t>dev5/port0/line17</t>
-  </si>
-  <si>
-    <t>SV-HE-01</t>
-  </si>
-  <si>
-    <t>dev5/port0/line24</t>
-  </si>
-  <si>
-    <t>SV-QD-03</t>
-  </si>
-  <si>
-    <t>dev5/port0/line25</t>
-  </si>
-  <si>
-    <t>EMU-PWR</t>
-  </si>
-  <si>
-    <t>dev5/port0/line28</t>
-  </si>
-  <si>
-    <t>DELUGE</t>
-  </si>
-  <si>
-    <t>dev5/port0/line31</t>
-  </si>
-  <si>
-    <t>SV-QD-02</t>
-  </si>
-  <si>
-    <t>dev5/port0/line27</t>
   </si>
 </sst>
 </file>
@@ -1089,8 +1005,8 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:U13"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1118,13 +1034,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -1142,183 +1058,51 @@
       <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2"/>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B5"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B9"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B11"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1369,31 +1153,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>

--- a/daq_system/inputs/CMS_Control_Test_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Control_Test_Dev5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB342DD2-9472-47D8-9F10-B048CBD0C693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FBEEA5-6DD7-4FBC-A0CC-99143E5298DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="4180" windowWidth="19200" windowHeight="8073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67" yWindow="413" windowWidth="25466" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,30 @@
   </si>
   <si>
     <t>Wiring DO</t>
+  </si>
+  <si>
+    <t>dev5/port0/line28</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>PYRO ACTUATOR (BLACK TAPE)</t>
+  </si>
+  <si>
+    <t>dev5/port0/line29</t>
+  </si>
+  <si>
+    <t>PYRO IGNITOR</t>
+  </si>
+  <si>
+    <t>ACTUATOR</t>
+  </si>
+  <si>
+    <t>IGNITER</t>
   </si>
 </sst>
 </file>
@@ -613,7 +637,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -651,6 +675,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -1005,8 +1036,8 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1058,12 +1089,70 @@
       <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B2"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B3"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B4"/>

--- a/daq_system/inputs/CMS_Control_Test_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Control_Test_Dev5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\daq_system\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AD1EF8-2F3E-464C-91CE-0B28019310B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3633EF3E-24E1-4702-9C4A-E3146DE88BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="12960" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67" yWindow="8213" windowWidth="12733" windowHeight="7720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -35,118 +35,46 @@
     <t>Operation</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Terminal Configuration</t>
+  </si>
+  <si>
+    <t>Engineering Units</t>
+  </si>
+  <si>
+    <t>Min Volts</t>
+  </si>
+  <si>
+    <t>Max Volts</t>
+  </si>
+  <si>
+    <t>Min Input</t>
+  </si>
+  <si>
+    <t>Max Input</t>
+  </si>
+  <si>
+    <t>Startup State</t>
+  </si>
+  <si>
+    <t>Scratch Space.  (Nothing here is parsed or used)</t>
+  </si>
+  <si>
+    <t>Wiring DO</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
-    <t>Terminal Configuration</t>
-  </si>
-  <si>
-    <t>Engineering Units</t>
-  </si>
-  <si>
-    <t>Min Volts</t>
-  </si>
-  <si>
-    <t>Max Volts</t>
-  </si>
-  <si>
-    <t>Min Input</t>
-  </si>
-  <si>
-    <t>Max Input</t>
-  </si>
-  <si>
-    <t>Startup State</t>
-  </si>
-  <si>
-    <t>Scratch Space.  (Nothing here is parsed or used)</t>
-  </si>
-  <si>
-    <t>Wiring DO</t>
+    <t>SV-N2-02</t>
   </si>
   <si>
     <t>dev5/port0/line23</t>
-  </si>
-  <si>
-    <t>SV-N2-02</t>
-  </si>
-  <si>
-    <t>PV-FU-02</t>
-  </si>
-  <si>
-    <t>dev5/port0/line18</t>
-  </si>
-  <si>
-    <t>PV-OX-02</t>
-  </si>
-  <si>
-    <t>dev5/port0/line19</t>
-  </si>
-  <si>
-    <t>PV-FU-03</t>
-  </si>
-  <si>
-    <t>dev5/port0/line20</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Opened</t>
-  </si>
-  <si>
-    <t>PV-OX-03</t>
-  </si>
-  <si>
-    <t>dev5/port0/line21</t>
-  </si>
-  <si>
-    <t>SV-BP-01</t>
-  </si>
-  <si>
-    <t>dev5/port0/line22</t>
-  </si>
-  <si>
-    <t>PV-HE-01</t>
-  </si>
-  <si>
-    <t>dev5/port0/line17</t>
-  </si>
-  <si>
-    <t>SV-HE-01</t>
-  </si>
-  <si>
-    <t>dev5/port0/line24</t>
-  </si>
-  <si>
-    <t>SV-QD-03</t>
-  </si>
-  <si>
-    <t>dev5/port0/line25</t>
-  </si>
-  <si>
-    <t>EMU-PWR</t>
-  </si>
-  <si>
-    <t>dev5/port0/line28</t>
-  </si>
-  <si>
-    <t>DELUGE</t>
-  </si>
-  <si>
-    <t>dev5/port0/line31</t>
-  </si>
-  <si>
-    <t>SV-QD-02</t>
-  </si>
-  <si>
-    <t>dev5/port0/line27</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1018,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:U13"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1118,13 +1046,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -1143,182 +1071,76 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="10"/>
+      <c r="B3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B5"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B9"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B11"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1369,31 +1191,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>

--- a/daq_system/inputs/CMS_Control_Test_Dev5.xlsx
+++ b/daq_system/inputs/CMS_Control_Test_Dev5.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Documents\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FBEEA5-6DD7-4FBC-A0CC-99143E5298DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326AE9E7-5078-4C2F-9DC2-F3947D96AD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67" yWindow="413" windowWidth="25466" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67" yWindow="413" windowWidth="12733" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
     <sheet name="AO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -35,9 +48,15 @@
     <t>Operation</t>
   </si>
   <si>
+    <t>NC</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Closed</t>
+  </si>
+  <si>
     <t>Terminal Configuration</t>
   </si>
   <si>
@@ -68,25 +87,13 @@
     <t>dev5/port0/line28</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>PYRO ACTUATOR (BLACK TAPE)</t>
+    <t>ACTUATOR</t>
+  </si>
+  <si>
+    <t>IGNITOR</t>
   </si>
   <si>
     <t>dev5/port0/line29</t>
-  </si>
-  <si>
-    <t>PYRO IGNITOR</t>
-  </si>
-  <si>
-    <t>ACTUATOR</t>
-  </si>
-  <si>
-    <t>IGNITER</t>
   </si>
 </sst>
 </file>
@@ -637,7 +644,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -664,9 +671,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,13 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -1033,11 +1030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1065,146 +1062,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B4"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B5"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B6"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B7"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B8"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B11"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B12"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B13"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:U1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{5EBC0010-7CBD-4321-9293-98D3C9126DC4}">
-      <formula1>"NC,NO,norm_off,norm_on"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{74BBBFC7-0548-4A73-BFC6-3B27DBAC7CA2}">
-      <formula1>"Closed,Opened,on,off,close,open"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1242,41 +1154,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="K1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="B2" s="1"/>
